--- a/biology/Botanique/Forêt_modèle/Forêt_modèle.xlsx
+++ b/biology/Botanique/Forêt_modèle/Forêt_modèle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_mod%C3%A8le</t>
+          <t>Forêt_modèle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’idée de créer des forêts modèles est née au Canada du besoin d'évaluation pluridisciplinaire et de partage des meilleures pratiques de gestion en fonction du contexte historique et biogéographique, alors que la forêt évolue et se gère sur des pas de temps inhabituellement longs pour les activités humaines.
 Lors du sommet de la terre de Rio en juin 1992, le Canada a proposé de partager et étendre son réseau, ce qui s'est fait avec la création en 1995 d’un secrétariat (Secrétariat du Réseau international de forêts modèles ; SRIFM) accueilli par le Centre de recherche pour le développement international (CRDI).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_mod%C3%A8le</t>
+          <t>Forêt_modèle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Réseau international de forêts modèles (RIFM)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est une ONG constituée de partenaires volontaires visant l’utilisation durable des forêts et le développement de modèles de gestions forestières représentatifs de tous les écosystèmes forestiers et s’enrichissant les uns des autres des leçons tirées des forêts-modèle existantes dans le monde, via :
 l’encouragement des démarches de développement durable ;
 les sciences forestières croisées avec les sciences sociales ;
-une coopération internationale et un réseau d’échange de savoir et savoir-faire, pour diffuser les méthodes de gestion et de conservation « qui génèrent continuellement des avantages pour l’humanité[1] ».
+une coopération internationale et un réseau d’échange de savoir et savoir-faire, pour diffuser les méthodes de gestion et de conservation « qui génèrent continuellement des avantages pour l’humanité ».
 Des forêts modèles se sont créées dans différents pays, dont en zone urbanisées, avec au Japon la Forêt modèle de Shadan Hojin de Kyoto (officiellement initiée en novembre 2006, avec un budget initial d’90 millions de yen (765 000 $US) en 2007 pour financer l’entretien et l’amélioration de la forêt, promouvoir « l’écologisation des écoles et des communautés », favoriser l’emploi forestier local et les projets de sensibilisation à l’environnement et à l’étude de la forêt.
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_mod%C3%A8le</t>
+          <t>Forêt_modèle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Superficies[2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 2006, 41 forêts modèles couvraient 55 309 350 ha dans 18 pays.
 La plus grande était celle Chiquitanoavec 20 400 000 ha en Bolivie.
